--- a/ProductMatch/CIV/ProductMatch_2016.xlsx
+++ b/ProductMatch/CIV/ProductMatch_2016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fraol.tesfaye\Desktop\ProductMatch\CIV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDC4D0A-A55C-4E6A-9217-C66F5B9B22EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4ABD1D-5B6E-4AFA-A431-13EEA4F59C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{25D36FD8-1C42-408C-846A-1FBB35C51384}"/>
   </bookViews>
@@ -31,22 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
-  <si>
-    <t>Product Code</t>
-  </si>
-  <si>
-    <t>Product Description</t>
-  </si>
-  <si>
-    <t>CPC2.1 Code</t>
-  </si>
-  <si>
-    <t>CPC 2.1 Description</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>PRODUITS AGRICOLES</t>
   </si>
@@ -284,6 +269,18 @@
   </si>
   <si>
     <t>PRODUITS EN ATTENTE DE NIVEAU 1</t>
+  </si>
+  <si>
+    <t>ProductCode</t>
+  </si>
+  <si>
+    <t>ProductDescription</t>
+  </si>
+  <si>
+    <t>CPC21Code</t>
+  </si>
+  <si>
+    <t>CPC21Description</t>
   </si>
 </sst>
 </file>
@@ -293,7 +290,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,###"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,6 +301,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -329,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -340,6 +345,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,49 +662,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE11553-5A8C-4790-B03F-26CDD3F4D658}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:C31"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.77734375" style="1"/>
     <col min="2" max="2" width="44.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="200.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -707,13 +709,13 @@
         <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -722,13 +724,13 @@
         <v>30</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -737,13 +739,13 @@
         <v>40</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -752,13 +754,13 @@
         <v>50</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -767,13 +769,13 @@
         <v>60</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -782,13 +784,13 @@
         <v>70</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -797,13 +799,13 @@
         <v>80</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -812,13 +814,13 @@
         <v>90</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -827,13 +829,13 @@
         <v>100</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E11" s="3"/>
     </row>
@@ -842,13 +844,13 @@
         <v>110</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -857,13 +859,13 @@
         <v>120</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -872,13 +874,13 @@
         <v>130</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -887,13 +889,13 @@
         <v>140</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -902,13 +904,13 @@
         <v>150</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -917,13 +919,13 @@
         <v>160</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E17" s="6"/>
     </row>
@@ -932,13 +934,13 @@
         <v>170</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -947,13 +949,13 @@
         <v>180</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E19" s="3"/>
     </row>
@@ -962,13 +964,13 @@
         <v>190</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E20" s="3"/>
     </row>
@@ -977,13 +979,13 @@
         <v>200</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E21" s="3"/>
     </row>
@@ -992,13 +994,13 @@
         <v>210</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E22" s="3"/>
     </row>
@@ -1007,13 +1009,13 @@
         <v>220</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E23" s="3"/>
     </row>
@@ -1022,13 +1024,13 @@
         <v>230</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E24" s="3"/>
     </row>
@@ -1037,13 +1039,13 @@
         <v>240</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E25" s="6"/>
     </row>
@@ -1052,10 +1054,10 @@
         <v>250</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="9"/>
@@ -1065,13 +1067,13 @@
         <v>260</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E27" s="9"/>
     </row>
@@ -1080,7 +1082,7 @@
         <v>999</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="6"/>
@@ -1088,6 +1090,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>